--- a/LF/TAS/Cote d'Ivoire/ci_lf_tas1_2_partcipants_202110.xlsx
+++ b/LF/TAS/Cote d'Ivoire/ci_lf_tas1_2_partcipants_202110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Sexe du participant</t>
   </si>
   <si>
-    <t>${p_consent} = 'Yes'</t>
+    <t>${p_consent} = 'Oui'</t>
   </si>
   <si>
     <t>p_age_yrs</t>
@@ -198,46 +198,40 @@
     <t>La valeur ne doit pas être supérieure à l'âge</t>
   </si>
   <si>
-    <t>select_one id_list</t>
-  </si>
-  <si>
-    <t>p_IDMethod</t>
-  </si>
-  <si>
-    <t>How will the individual's unique ID be generated?</t>
-  </si>
-  <si>
-    <t>Comment l'ID unique de l'individu sera-t-il généré?</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>p_BarcodeID</t>
-  </si>
-  <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
-    <t>Scanner le code-barres maintenant</t>
-  </si>
-  <si>
-    <t>${p_IDMethod} = 'Scanner' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>p_GenerateID</t>
-  </si>
-  <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
-  </si>
-  <si>
-    <t>Veuiller enregistrer le code d'identification unique du participant qui apparait sur une liste séparée et sur chaque test de diagnostic administré</t>
-  </si>
-  <si>
-    <t>${p_IDMethod} = 'ID_generation' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>concat(${p_cluster_id},'-',substr(random(),3,9))</t>
+    <t>p_num</t>
+  </si>
+  <si>
+    <t>Enter the order number</t>
+  </si>
+  <si>
+    <t>Must be between 1 and 410</t>
+  </si>
+  <si>
+    <t>Numéro d'ordre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doit être compris entre 1 et 410 </t>
+  </si>
+  <si>
+    <t>. &gt; 0 and . &lt;= 410</t>
+  </si>
+  <si>
+    <t>The value must be between 1 and 410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La valeur doit être compris entre 1 et 410 </t>
+  </si>
+  <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>Respondent identification code (Please copy this code as it appears somewhere on the diagnostic test)</t>
+  </si>
+  <si>
+    <t>Code d'identification du répondant (Veuillez recopier ce code tel qu'il est quelque part entre autre sur les test de diagnostique)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> concat(${p_cluster_id}, '-' ,${p_num})</t>
   </si>
   <si>
     <t>note</t>
@@ -252,7 +246,7 @@
     <t>Vous vener de saisir une valeur qui mettra fin à l'enquête</t>
   </si>
   <si>
-    <t>${p_consent} = 'No'</t>
+    <t>${p_consent} = 'Non'</t>
   </si>
   <si>
     <t>text</t>
@@ -285,18 +279,18 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>Oui</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Oui</t>
+    <t>Non</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>sex_list</t>
   </si>
   <si>
@@ -336,10 +330,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) 2. TAS1 FL - Formulaire Participants</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_2_partcipants_202110</t>
+    <t>(Octobre 2021) 2. TAS1 FL - Formulaire Participants V2</t>
+  </si>
+  <si>
+    <t>ci_lf_tas1_2_partcipants_202110_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -351,11 +345,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,6 +366,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -398,10 +399,138 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,121 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,187 +571,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,33 +799,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,23 +837,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,8 +857,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,149 +877,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1038,10 +1061,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1059,7 +1085,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,27 +1102,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1133,11 +1168,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1412,14 +1449,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1442,524 +1479,504 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="36" spans="1:16">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="63" spans="1:16">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="12"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="13" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="12"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="12"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="12"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="15" t="s">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:16">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:16">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" s="9" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="s">
+      <c r="L9" s="14"/>
+      <c r="M9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="13" t="s">
+      <c r="L10" s="17"/>
+      <c r="M10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
-      <c r="A11" s="12" t="s">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" s="10" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
+      <c r="F11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13" t="s">
+      <c r="L11" s="20"/>
+      <c r="M11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
-      <c r="A12" s="12" t="s">
-        <v>64</v>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="47.25" spans="1:16">
+      <c r="A12" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13" t="s">
+      <c r="C12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="47.25" spans="1:16">
-      <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="19" t="s">
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="B13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A14" s="12" t="s">
+      <c r="C13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="25" t="s">
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:16">
+      <c r="A14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12" t="s">
+      <c r="B14" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
-      <c r="A15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:16">
-      <c r="A16" s="12" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1976,7 +1993,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1989,7 +2006,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2004,86 +2021,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2101,35 +2118,35 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="46.5" customWidth="1"/>
-    <col min="2" max="2" width="28.6266666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Cote d'Ivoire/ci_lf_tas1_2_partcipants_202110.xlsx
+++ b/LF/TAS/Cote d'Ivoire/ci_lf_tas1_2_partcipants_202110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -117,6 +117,15 @@
     <t>Sélectionner le district</t>
   </si>
   <si>
+    <t>p_district_id</t>
+  </si>
+  <si>
+    <t>Select your district ID</t>
+  </si>
+  <si>
+    <t>Sélectionner le code du district</t>
+  </si>
+  <si>
     <t>p_cluster_name</t>
   </si>
   <si>
@@ -231,7 +240,7 @@
     <t>Code d'identification du répondant (Veuillez recopier ce code tel qu'il est quelque part entre autre sur les test de diagnostique)</t>
   </si>
   <si>
-    <t xml:space="preserve"> concat(${p_cluster_id}, '-' ,${p_num})</t>
+    <t>concat(${p_district_id}, '-', ${p_cluster_id}, '-' ,${p_num})</t>
   </si>
   <si>
     <t>note</t>
@@ -330,10 +339,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) 2. TAS1 FL - Formulaire Participants V2</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_2_partcipants_202110_v2</t>
+    <t>(Octobre 2021) 2. TAS1 FL - Formulaire Participants V3</t>
+  </si>
+  <si>
+    <t>ci_lf_tas1_2_partcipants_202110_v3</t>
   </si>
   <si>
     <t>French</t>
@@ -344,12 +353,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -366,13 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -399,6 +401,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -408,46 +516,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,96 +545,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -571,31 +573,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,31 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,115 +729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,11 +797,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,41 +886,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -862,185 +894,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1061,37 +1063,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,26 +1101,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1449,14 +1448,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1491,10 +1490,10 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -1541,20 +1540,20 @@
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="17"/>
@@ -1577,14 +1576,14 @@
         <v>28</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="14" t="s">
@@ -1605,14 +1604,14 @@
         <v>31</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="14" t="s">
@@ -1633,14 +1632,14 @@
         <v>34</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="14" t="s">
@@ -1650,82 +1649,80 @@
       <c r="O5" s="17"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:15">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:16">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="16" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
-      <c r="A7" s="13" t="s">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:16">
       <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14" t="s">
         <v>25</v>
@@ -1734,33 +1731,27 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" s="9" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:16">
+      <c r="A9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14" t="s">
@@ -1770,181 +1761,195 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="9" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="26" t="s">
+      <c r="J10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="K10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="14"/>
       <c r="M10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" s="10" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A11" s="10" t="s">
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="I11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="J11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="K11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" s="10" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10" t="s">
+      <c r="D12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="47.25" spans="1:16">
-      <c r="A12" s="13" t="s">
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="47.25" spans="1:16">
+      <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="32" t="s">
+      <c r="B13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A13" s="13" t="s">
+      <c r="C13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
+      <c r="K13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:16">
+      <c r="P13" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="27"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -1956,27 +1961,49 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" s="3" customFormat="1" spans="1:16">
       <c r="A16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="B16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2006,7 +2033,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2021,86 +2048,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2118,7 +2145,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2129,24 +2156,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
